--- a/dictionnaryIRS.xlsx
+++ b/dictionnaryIRS.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerpetit\PycharmProjects\uiPoc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerom\PycharmProjects\uiPoc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D3BFFC49-3C05-43AF-B60D-B78C38E06E59}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E594848-2140-4FB4-AEA8-3356E3FA76FF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11775" xr2:uid="{ABE2F1E9-3970-47D1-B6C6-78F5DDCD6235}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" calcCompleted="0" calcOnSave="0"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -287,7 +287,7 @@
     <t>Master</t>
   </si>
   <si>
-    <t>Kenibo427</t>
+    <t>kenobi427</t>
   </si>
 </sst>
 </file>
@@ -663,8 +663,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B4BF8B7-AEFF-49C3-B874-F5D1615418C3}">
   <dimension ref="A1:C85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection sqref="A1:C85"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
